--- a/Document/02. Design/02. DetailDesign/Task 4/Detail_Design_Send_Mail.xlsx
+++ b/Document/02. Design/02. DetailDesign/Task 4/Detail_Design_Send_Mail.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ToanHH\Candidate-Management\Document\02. Design\02. DetailDesign\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\Candidate-Management\Document\02. Design\02. DetailDesign\Task 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D696EC-AE87-4ED7-8B9F-344FFFAB1146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F5DD94-8678-48C8-B631-B58E54916A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E66F33F2-3F08-42B0-854E-F4EB9B3391E7}"/>
   </bookViews>
@@ -28,8 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="118">
   <si>
     <t>Mã Số</t>
   </si>
@@ -226,12 +224,6 @@
   </si>
   <si>
     <t>Kiểu</t>
-  </si>
-  <si>
-    <t>candidate</t>
-  </si>
-  <si>
-    <t>Candidate</t>
   </si>
   <si>
     <t>Hiển thị component View Content Mail</t>
@@ -376,17 +368,47 @@
     <t>Ứng viên được chọn checked box</t>
   </si>
   <si>
-    <t>cadidate</t>
-  </si>
-  <si>
-    <t>Truyền vào component cha candidate hiện tại trên row</t>
+    <t>Hiển Thị Khởi Tạo</t>
+  </si>
+  <si>
+    <t>Action Tạo Mail</t>
+  </si>
+  <si>
+    <t>candidatebylh-status</t>
+  </si>
+  <si>
+    <t>API candidatebylh-status</t>
+  </si>
+  <si>
+    <t>email.Content</t>
+  </si>
+  <si>
+    <t>API email.upsert</t>
+  </si>
+  <si>
+    <t>email.upsert</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách Ứng Viên theo điều kiện</t>
+  </si>
+  <si>
+    <t>Thực hiện tạo ND email cho ứng viên insert or update</t>
+  </si>
+  <si>
+    <t>email.getContent</t>
+  </si>
+  <si>
+    <t>Lấy ND mail của candidate để gửi mail</t>
+  </si>
+  <si>
+    <t>API email.getContent</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -430,6 +452,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -461,7 +499,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -497,13 +535,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -517,6 +592,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
@@ -525,21 +616,21 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent1" xfId="2" builtinId="29"/>
@@ -614,14 +705,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>31937</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>477166</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>77060</xdr:rowOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>21030</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -644,8 +735,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="4581525"/>
-          <a:ext cx="6563641" cy="6163535"/>
+          <a:off x="0" y="4603937"/>
+          <a:ext cx="6539548" cy="6163535"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -656,16 +747,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1381685</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>122144</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>32497</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1153287</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>74858</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>567220</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>175711</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -688,7 +779,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8049185" y="3741644"/>
+          <a:off x="0" y="21177997"/>
           <a:ext cx="5419367" cy="2429214"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -702,14 +793,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>2244</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>486607</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>172362</xdr:rowOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>60306</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -732,8 +823,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="10972800"/>
-          <a:ext cx="5963482" cy="6535062"/>
+          <a:off x="0" y="11577920"/>
+          <a:ext cx="5943872" cy="6535062"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -746,13 +837,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>600124</xdr:colOff>
-      <xdr:row>147</xdr:row>
+      <xdr:row>152</xdr:row>
       <xdr:rowOff>49371</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -790,13 +881,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>179294</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>568334</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>179746</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -828,6 +919,134 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>100854</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>100853</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1635EBA8-863C-4412-BC44-CD7C5E42BB37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4347883" y="19218088"/>
+          <a:ext cx="1210235" cy="638735"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>369794</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>963706</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C8A283F-2A79-4119-9CD3-BCE99E5B4820}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5827059" y="19083618"/>
+          <a:ext cx="1804147" cy="829235"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Truyền</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Sang Ứng Viên (candidate) từ candidate.ID lấy email.content =&gt; hiển thị</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1472,10 +1691,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A2B85C1-D25C-4E8E-BFE8-CEBD2B9FB24B}">
-  <dimension ref="A1:R137"/>
+  <dimension ref="A1:N142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H118" sqref="H118"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1494,20 +1713,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
       <c r="E1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
+      <c r="F1" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
       <c r="J1" s="2" t="s">
         <v>49</v>
       </c>
@@ -1518,20 +1737,20 @@
         <v>51</v>
       </c>
       <c r="N1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="15"/>
+      <c r="C4" s="10"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -1540,15 +1759,15 @@
       <c r="C5" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
@@ -1558,7 +1777,7 @@
         <v>56</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
@@ -1572,10 +1791,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
@@ -1589,10 +1808,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
@@ -1615,10 +1834,10 @@
       <c r="J9" s="14"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="15"/>
+      <c r="C11" s="10"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
@@ -1627,739 +1846,629 @@
       <c r="C12" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="2">
+      <c r="B13" s="9">
         <v>1</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
+      <c r="C13" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="23"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="9">
+        <v>2</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="23"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="9">
+        <v>3</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="23"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="9">
+        <v>4</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="23"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="15"/>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
+      <c r="C18" s="10"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D19" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B18" s="2">
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
         <v>1</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
+        <v>2</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D21" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B19" s="2">
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="9">
+        <v>3</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="23"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="17"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="18"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+    </row>
+    <row r="29" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A29" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+    </row>
+    <row r="40" spans="10:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="J40" s="20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J42" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J43" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="K43" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="L43" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="M43" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="N43" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J44" s="2">
+        <v>1</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J45" s="2">
         <v>2</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="K45" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J48" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J49" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="K49" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="L49" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="M49" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="N49" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J50" s="2">
+        <v>1</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J51" s="2">
+        <v>2</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J52" s="2">
+        <v>3</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A64" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B64" s="19"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+      <c r="J64" s="20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="65" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J65" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="14" t="s">
+    </row>
+    <row r="66" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J66" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B21" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="11"/>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B22" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="6" t="s">
+      <c r="K66" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="L66" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="12"/>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B23" s="2">
+      <c r="M66" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="N66" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="67" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J67" s="2">
         <v>1</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" s="13"/>
-      <c r="N23" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="N24" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="O24" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="P24" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q24" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="R24" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="N25" s="2">
-        <v>1</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="P25" s="2" t="s">
+      <c r="K67" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="L67" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="Q25" s="2" t="s">
+      <c r="M67" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R25" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-    </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="N29" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="N30" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="O30" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="P30" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q30" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="R30" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="N31" s="2">
-        <v>1</v>
-      </c>
-      <c r="O31" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="P31" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q31" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="R31" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="N32" s="2">
-        <v>2</v>
-      </c>
-      <c r="O32" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="P32" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q32" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="R32" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="33" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-    </row>
-    <row r="37" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="J37" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="J38" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="K38" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="L38" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="M38" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="N38" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="39" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="J39" s="2">
-        <v>1</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="N39" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="40" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="J40" s="2">
-        <v>2</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="N40" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="43" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="J43" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="44" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="J44" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="K44" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="L44" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="M44" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="N44" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="45" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="J45" s="2">
-        <v>1</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="L45" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="M45" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="N45" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="46" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="J46" s="2">
-        <v>2</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="L46" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="M46" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="N46" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="47" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="J47" s="2">
-        <v>3</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="L47" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="M47" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="N47" s="2" t="s">
+      <c r="N67" s="2" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="60" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J60" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="61" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J61" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="K61" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="L61" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="M61" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="N61" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="62" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J62" s="2">
-        <v>1</v>
-      </c>
-      <c r="K62" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="L62" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M62" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="N62" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="63" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J63" s="2">
-        <v>2</v>
-      </c>
-      <c r="K63" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="L63" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="M63" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="N63" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="66" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J66" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J67" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="K67" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="L67" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="M67" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="N67" s="8" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="68" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J68" s="2">
+        <v>2</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="M68" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="N68" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J71" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="72" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J72" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="K72" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="K68" s="2" t="s">
+      <c r="L72" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="M72" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="N72" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="73" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J73" s="2">
+        <v>1</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M73" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="L68" s="2" t="s">
+      <c r="N73" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="M68" s="2" t="s">
+    </row>
+    <row r="74" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J74" s="2">
+        <v>2</v>
+      </c>
+      <c r="K74" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="N68" s="2" t="s">
+      <c r="L74" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="69" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J69" s="2">
-        <v>2</v>
-      </c>
-      <c r="K69" s="2" t="s">
+      <c r="M74" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="L69" s="2" t="s">
+      <c r="N74" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="M69" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="N69" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="70" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J70" s="2">
+    </row>
+    <row r="75" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J75" s="2">
         <v>3</v>
       </c>
-      <c r="K70" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="L70" s="2" t="s">
+      <c r="K75" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="L75" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="M70" s="2" t="s">
+      <c r="M75" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="N70" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="95" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J95" s="7" t="s">
+      <c r="N75" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="110" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J110" s="2"/>
+      <c r="K110" s="2"/>
+      <c r="L110" s="2"/>
+      <c r="M110" s="2"/>
+      <c r="N110" s="2"/>
+    </row>
+    <row r="130" spans="10:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="J130" s="25" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="132" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J132" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="133" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J133" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="K133" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="L133" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="M133" s="8" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="96" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J96" s="8" t="s">
+      <c r="N133" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="K96" s="8" t="s">
+    </row>
+    <row r="134" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J134" s="2">
         <v>1</v>
       </c>
-      <c r="L96" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="M96" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="N96" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="97" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J97" s="2">
-        <v>1</v>
-      </c>
-      <c r="K97" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="L97" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="M97" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="N97" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="98" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J98" s="2"/>
-      <c r="K98" s="2"/>
-      <c r="L98" s="2"/>
-      <c r="M98" s="2"/>
-      <c r="N98" s="2"/>
-    </row>
-    <row r="101" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J101" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="102" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J102" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="K102" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="L102" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="M102" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="N102" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="103" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J103" s="2">
-        <v>1</v>
-      </c>
-      <c r="K103" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="L103" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="M103" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="N103" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="104" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J104" s="2">
-        <v>2</v>
-      </c>
-      <c r="K104" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="L104" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="M104" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="N104" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="105" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J105" s="2"/>
-      <c r="K105" s="2"/>
-      <c r="L105" s="2"/>
-      <c r="M105" s="2"/>
-      <c r="N105" s="2"/>
-    </row>
-    <row r="127" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J127" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="128" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J128" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="K128" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="L128" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="M128" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="N128" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="129" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J129" s="2">
-        <v>1</v>
-      </c>
-      <c r="K129" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="L129" s="2" t="s">
+      <c r="K134" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L134" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="M129" s="2" t="s">
+      <c r="M134" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="N129" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="130" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J130" s="2">
-        <v>2</v>
-      </c>
-      <c r="K130" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="L130" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M130" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="N130" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="131" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J131">
-        <v>3</v>
-      </c>
-      <c r="K131" t="s">
-        <v>106</v>
-      </c>
-      <c r="L131" t="s">
-        <v>83</v>
-      </c>
-      <c r="M131" t="s">
-        <v>83</v>
-      </c>
-      <c r="N131" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="133" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J133" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="134" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J134" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="K134" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="L134" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="M134" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="N134" s="8" t="s">
-        <v>79</v>
+      <c r="N134" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="135" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J135" s="2">
+        <v>2</v>
+      </c>
+      <c r="K135" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L135" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M135" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N135" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="136" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J136">
+        <v>3</v>
+      </c>
+      <c r="K136" t="s">
+        <v>104</v>
+      </c>
+      <c r="L136" t="s">
+        <v>81</v>
+      </c>
+      <c r="M136" t="s">
+        <v>81</v>
+      </c>
+      <c r="N136" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="138" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J138" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="139" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J139" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="K139" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="K135" s="2" t="s">
+      <c r="L139" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="M139" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="N139" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="140" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J140" s="2">
+        <v>1</v>
+      </c>
+      <c r="K140" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L140" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M140" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="L135" s="2" t="s">
+      <c r="N140" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="M135" s="2" t="s">
+    </row>
+    <row r="141" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J141" s="2">
+        <v>2</v>
+      </c>
+      <c r="K141" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="N135" s="2" t="s">
+      <c r="L141" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="136" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J136" s="2">
-        <v>2</v>
-      </c>
-      <c r="K136" s="2" t="s">
+      <c r="M141" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="L136" s="2" t="s">
+      <c r="N141" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="M136" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="N136" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="137" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J137" s="2">
+    </row>
+    <row r="142" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J142" s="2">
         <v>3</v>
       </c>
-      <c r="K137" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="L137" s="2" t="s">
+      <c r="K142" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L142" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="M137" s="2" t="s">
+      <c r="M142" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="N137" s="2" t="s">
-        <v>104</v>
+      <c r="N142" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="B16:C16"/>
+  <mergeCells count="24">
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="D14:J14"/>
+    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="D16:J16"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="D19:J19"/>
+    <mergeCell ref="D20:J20"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="B18:C18"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="B4:C4"/>
@@ -2371,12 +2480,6 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D12:J12"/>
     <mergeCell ref="D13:J13"/>
-    <mergeCell ref="D17:J17"/>
-    <mergeCell ref="D18:J18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D19:J19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
